--- a/data/trans_orig/P16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65928098-93E3-41E7-8408-AEFE6598058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C74290-3A3B-440A-8520-9D7728B79FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75439D28-57F8-471E-AE9A-CDD1D234D543}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2364D244-C21C-488A-A8FB-8450F4C94A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>56,37%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>43,63%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>72,28%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +253,55 @@
     <t>74,87%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>77,17%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>21,4%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,913 +310,907 @@
     <t>85,38%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>86,36%</t>
   </si>
   <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>16,54%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,79%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>37,21%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC77764C-9F3A-424F-8F1C-DC9BEAD2ABCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABB808-B146-4D17-BDA4-EA665FFA84B9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2545,10 +2539,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -2557,13 +2551,13 @@
         <v>331649</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2572,13 @@
         <v>8022</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2593,13 +2587,13 @@
         <v>12571</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2608,13 +2602,13 @@
         <v>20593</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2676,13 @@
         <v>349926</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>650</v>
@@ -2697,28 +2691,28 @@
         <v>670954</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1008</v>
       </c>
       <c r="N22" s="7">
-        <v>1020879</v>
+        <v>1020880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2727,13 @@
         <v>101108</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -2748,13 +2742,13 @@
         <v>129804</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -2763,13 +2757,13 @@
         <v>230912</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2805,7 @@
         <v>1236</v>
       </c>
       <c r="N24" s="7">
-        <v>1251791</v>
+        <v>1251792</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE25A1EC-B9AC-4B22-92C8-B66E37D5BDBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D379C6-3121-48FF-B018-1ECF6F2BC09B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,13 +2965,13 @@
         <v>33387</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2986,13 +2980,13 @@
         <v>51184</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3001,13 +2995,13 @@
         <v>84571</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3016,13 @@
         <v>20755</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -3037,13 +3031,13 @@
         <v>45412</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -3052,13 +3046,13 @@
         <v>66167</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3120,13 @@
         <v>57675</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3141,13 +3135,13 @@
         <v>93965</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3156,13 +3150,13 @@
         <v>151640</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3171,13 @@
         <v>41648</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3192,13 +3186,13 @@
         <v>54895</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -3207,13 +3201,13 @@
         <v>96543</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3275,13 @@
         <v>68328</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -3299,10 +3293,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3311,13 +3305,13 @@
         <v>221564</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3326,13 @@
         <v>30949</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -3350,10 +3344,10 @@
         <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>87</v>
@@ -3362,13 +3356,13 @@
         <v>93431</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3430,13 @@
         <v>74648</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -3451,13 +3445,13 @@
         <v>158579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -3466,13 +3460,13 @@
         <v>233227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3481,13 @@
         <v>26971</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3502,13 +3496,13 @@
         <v>37469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3517,13 +3511,13 @@
         <v>64440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3585,13 @@
         <v>77933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -3606,13 +3600,13 @@
         <v>133338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3621,13 +3615,13 @@
         <v>211270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3636,13 @@
         <v>14605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3657,13 +3651,13 @@
         <v>28505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -3672,13 +3666,13 @@
         <v>43110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3740,13 @@
         <v>151282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -3761,13 +3755,13 @@
         <v>351486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>461</v>
@@ -3776,13 +3770,13 @@
         <v>502769</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3791,13 @@
         <v>9327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3812,13 +3806,13 @@
         <v>16416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3827,13 +3821,13 @@
         <v>25742</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3895,13 @@
         <v>463252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>869</v>
@@ -3916,13 +3910,13 @@
         <v>941789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1297</v>
@@ -3931,13 +3925,13 @@
         <v>1405041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3946,13 @@
         <v>144255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -3967,13 +3961,13 @@
         <v>245179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>365</v>
@@ -3982,13 +3976,13 @@
         <v>389434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,7 +4038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D563A6-998B-4B82-873E-F6743096388E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEF68F1-AD42-4AF6-AA93-49AF0F147366}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4190,13 +4184,13 @@
         <v>22577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4205,13 +4199,13 @@
         <v>39365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -4220,13 +4214,13 @@
         <v>61942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4235,13 @@
         <v>27092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4256,13 +4250,13 @@
         <v>28320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -4271,13 +4265,13 @@
         <v>55412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4339,13 @@
         <v>53551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4360,13 +4354,13 @@
         <v>68479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -4375,13 +4369,13 @@
         <v>122030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4390,13 @@
         <v>41736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4411,13 +4405,13 @@
         <v>60276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -4426,13 +4420,13 @@
         <v>102012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4494,13 @@
         <v>59069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -4515,13 +4509,13 @@
         <v>98744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -4530,13 +4524,13 @@
         <v>157813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4545,13 @@
         <v>54377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -4566,13 +4560,13 @@
         <v>55189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -4581,13 +4575,13 @@
         <v>109566</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4649,13 @@
         <v>85753</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4670,13 +4664,13 @@
         <v>128704</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -4685,13 +4679,13 @@
         <v>214457</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4700,13 @@
         <v>39444</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -4721,13 +4715,13 @@
         <v>55363</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4736,13 +4730,13 @@
         <v>94807</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4804,13 @@
         <v>74001</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>143</v>
@@ -4825,13 +4819,13 @@
         <v>162798</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -4840,13 +4834,13 @@
         <v>236799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4855,13 @@
         <v>34502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4876,13 +4870,13 @@
         <v>28627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4891,13 +4885,13 @@
         <v>63129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4959,13 @@
         <v>125682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>270</v>
@@ -4980,13 +4974,13 @@
         <v>319310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4995,13 +4989,13 @@
         <v>444992</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5010,13 @@
         <v>14333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -5031,13 +5025,13 @@
         <v>36749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5046,13 +5040,13 @@
         <v>51082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5114,13 @@
         <v>420634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>744</v>
@@ -5135,13 +5129,13 @@
         <v>817400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>1151</v>
@@ -5150,13 +5144,13 @@
         <v>1238033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5165,13 @@
         <v>211483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>250</v>
@@ -5186,13 +5180,13 @@
         <v>264524</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>447</v>
@@ -5201,13 +5195,13 @@
         <v>476007</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5257,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C74290-3A3B-440A-8520-9D7728B79FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{167CE53E-2CA0-4DEE-B2BF-853862C5BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2364D244-C21C-488A-A8FB-8450F4C94A0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{250049A4-8DB6-4D31-833D-D8C205308415}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>56,37%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>43,63%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,7 +196,7 @@
     <t>72,28%</t>
   </si>
   <si>
-    <t>61,45%</t>
+    <t>61,67%</t>
   </si>
   <si>
     <t>81,25%</t>
@@ -205,19 +205,19 @@
     <t>82,86%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>27,72%</t>
@@ -226,25 +226,25 @@
     <t>18,75%</t>
   </si>
   <si>
-    <t>38,55%</t>
+    <t>38,33%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,964 +253,970 @@
     <t>74,87%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>77,17%</t>
   </si>
   <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
     <t>70,59%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>37,18%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABB808-B146-4D17-BDA4-EA665FFA84B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64FF35B-1F99-4A4F-B19F-E6B8F5B5AC17}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,7 +1970,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>26912</v>
+        <v>26911</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2015,7 +2021,7 @@
         <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>92913</v>
+        <v>92912</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2539,10 +2545,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -2551,13 +2557,13 @@
         <v>331649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2578,13 @@
         <v>8022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2587,13 +2593,13 @@
         <v>12571</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2602,13 +2608,13 @@
         <v>20593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2682,13 @@
         <v>349926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>650</v>
@@ -2691,13 +2697,13 @@
         <v>670954</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1008</v>
@@ -2706,13 +2712,13 @@
         <v>1020880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2733,13 @@
         <v>101108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -2742,13 +2748,13 @@
         <v>129804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -2757,13 +2763,13 @@
         <v>230912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2825,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D379C6-3121-48FF-B018-1ECF6F2BC09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F855C6B-6256-46CB-9C67-A7D94A4CF7AF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2858,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2965,13 +2971,13 @@
         <v>33387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2980,13 +2986,13 @@
         <v>51184</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -2995,13 +3001,13 @@
         <v>84571</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3022,13 @@
         <v>20755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -3031,13 +3037,13 @@
         <v>45412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -3046,13 +3052,13 @@
         <v>66167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3126,13 @@
         <v>57675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3135,13 +3141,13 @@
         <v>93965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3150,13 +3156,13 @@
         <v>151640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3177,13 @@
         <v>41648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3186,13 +3192,13 @@
         <v>54895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -3201,13 +3207,13 @@
         <v>96543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3281,13 @@
         <v>68328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -3293,10 +3299,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3305,13 +3311,13 @@
         <v>221564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3332,13 @@
         <v>30949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -3344,10 +3350,10 @@
         <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>87</v>
@@ -3356,13 +3362,13 @@
         <v>93431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3436,13 @@
         <v>74648</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -3445,13 +3451,13 @@
         <v>158579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -3460,13 +3466,13 @@
         <v>233227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3487,13 @@
         <v>26971</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3496,13 +3502,13 @@
         <v>37469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3511,13 +3517,13 @@
         <v>64440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3591,13 @@
         <v>77933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -3600,13 +3606,13 @@
         <v>133338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3615,13 +3621,13 @@
         <v>211270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3642,13 @@
         <v>14605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3651,13 +3657,13 @@
         <v>28505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -3666,13 +3672,13 @@
         <v>43110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3746,13 @@
         <v>151282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -3755,13 +3761,13 @@
         <v>351486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>461</v>
@@ -3770,13 +3776,13 @@
         <v>502769</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3797,13 @@
         <v>9327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3806,13 +3812,13 @@
         <v>16416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3821,13 +3827,13 @@
         <v>25742</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3901,13 @@
         <v>463252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>869</v>
@@ -3910,13 +3916,13 @@
         <v>941789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1297</v>
@@ -3925,13 +3931,13 @@
         <v>1405041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3952,13 @@
         <v>144255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -3961,13 +3967,13 @@
         <v>245179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>365</v>
@@ -3976,13 +3982,13 @@
         <v>389434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4044,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEF68F1-AD42-4AF6-AA93-49AF0F147366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880115F-59CF-4FBC-8952-CC6BD966F2E3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,13 +4190,13 @@
         <v>22577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4199,13 +4205,13 @@
         <v>39365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -4214,13 +4220,13 @@
         <v>61942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4241,13 @@
         <v>27092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4250,13 +4256,13 @@
         <v>28320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -4265,13 +4271,13 @@
         <v>55412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>53551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4354,13 +4360,13 @@
         <v>68479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -4369,13 +4375,13 @@
         <v>122030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4396,13 @@
         <v>41736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4405,7 +4411,7 @@
         <v>60276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>298</v>
@@ -4837,10 +4843,10 @@
         <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4861,13 @@
         <v>34502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4870,13 +4876,13 @@
         <v>28627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4885,13 +4891,13 @@
         <v>63129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4965,13 @@
         <v>125682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>270</v>
@@ -4974,13 +4980,13 @@
         <v>319310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4989,13 +4995,13 @@
         <v>444992</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5016,13 @@
         <v>14333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -5025,13 +5031,13 @@
         <v>36749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5040,13 +5046,13 @@
         <v>51082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5120,13 @@
         <v>420634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>744</v>
@@ -5129,13 +5135,13 @@
         <v>817400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1151</v>
@@ -5144,13 +5150,13 @@
         <v>1238033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5171,13 @@
         <v>211483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>250</v>
@@ -5180,13 +5186,13 @@
         <v>264524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>447</v>
@@ -5195,13 +5201,13 @@
         <v>476007</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5263,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{167CE53E-2CA0-4DEE-B2BF-853862C5BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2DD800-EAD1-4686-89EE-89C4705F06D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{250049A4-8DB6-4D31-833D-D8C205308415}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A58ACD01-8797-4C71-BCEE-C7625370CC21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,34 +70,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>43,63%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,982 +139,988 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>61,52%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>63,93%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>78,95%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>83,49%</t>
+    <t>84,34%</t>
   </si>
   <si>
     <t>93,81%</t>
@@ -1123,19 +1129,19 @@
     <t>89,68%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>10,24%</t>
@@ -1144,79 +1150,73 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>15,66%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
+    <t>62,79%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>37,21%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64FF35B-1F99-4A4F-B19F-E6B8F5B5AC17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408782B4-57AA-4216-B26E-B2B56410FF8F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1970,7 +1970,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>26911</v>
+        <v>26912</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2021,7 +2021,7 @@
         <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>92912</v>
+        <v>92913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         <v>1008</v>
       </c>
       <c r="N22" s="7">
-        <v>1020880</v>
+        <v>1020879</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -2811,7 +2811,7 @@
         <v>1236</v>
       </c>
       <c r="N24" s="7">
-        <v>1251792</v>
+        <v>1251791</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2847,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F855C6B-6256-46CB-9C67-A7D94A4CF7AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FD7933-1440-4060-A844-F128FA833CC7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3454,10 +3454,10 @@
         <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -3466,13 +3466,13 @@
         <v>233227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3487,13 @@
         <v>26971</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3502,13 +3502,13 @@
         <v>37469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3517,13 +3517,13 @@
         <v>64440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3591,13 @@
         <v>77933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -3606,13 +3606,13 @@
         <v>133338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3621,13 +3621,13 @@
         <v>211270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3642,13 @@
         <v>14605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3657,13 +3657,13 @@
         <v>28505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -3672,13 +3672,13 @@
         <v>43110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3746,13 @@
         <v>151282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -3761,13 +3761,13 @@
         <v>351486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>461</v>
@@ -3776,13 +3776,13 @@
         <v>502769</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3797,13 @@
         <v>9327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3812,13 +3812,13 @@
         <v>16416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3827,13 +3827,13 @@
         <v>25742</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3901,13 @@
         <v>463252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>869</v>
@@ -3916,13 +3916,13 @@
         <v>941789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>1297</v>
@@ -3931,13 +3931,13 @@
         <v>1405041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3952,13 @@
         <v>144255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -3967,13 +3967,13 @@
         <v>245179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>365</v>
@@ -3982,13 +3982,13 @@
         <v>389434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880115F-59CF-4FBC-8952-CC6BD966F2E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD1E24-4E13-47D7-B5D9-5F28BBF1457E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4190,13 +4190,13 @@
         <v>22577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4205,13 +4205,13 @@
         <v>39365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -4220,13 +4220,13 @@
         <v>61942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4241,13 @@
         <v>27092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4256,13 +4256,13 @@
         <v>28320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -4271,13 +4271,13 @@
         <v>55412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4345,13 @@
         <v>53551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4360,13 +4360,13 @@
         <v>68479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -4375,13 +4375,13 @@
         <v>122030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4396,13 @@
         <v>41736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4411,13 +4411,13 @@
         <v>60276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -4426,13 +4426,13 @@
         <v>102012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4500,13 @@
         <v>59069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -4515,13 +4515,13 @@
         <v>98744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -4530,13 +4530,13 @@
         <v>157813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4551,13 @@
         <v>54377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -4566,13 +4566,13 @@
         <v>55189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -4581,13 +4581,13 @@
         <v>109566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4655,13 @@
         <v>85753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4670,13 +4670,13 @@
         <v>128704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -4685,13 +4685,13 @@
         <v>214457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>39444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -4721,13 +4721,13 @@
         <v>55363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4736,13 +4736,13 @@
         <v>94807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4810,13 @@
         <v>74001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>143</v>
@@ -4825,13 +4825,13 @@
         <v>162798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -4840,13 +4840,13 @@
         <v>236799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4861,13 @@
         <v>34502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4876,13 +4876,13 @@
         <v>28627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4891,13 +4891,13 @@
         <v>63129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4965,13 @@
         <v>125682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>270</v>
@@ -4980,13 +4980,13 @@
         <v>319310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4995,13 +4995,13 @@
         <v>444992</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5016,13 @@
         <v>14333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -5031,13 +5031,13 @@
         <v>36749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5046,13 +5046,13 @@
         <v>51082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5120,13 @@
         <v>420634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="H22" s="7">
         <v>744</v>
@@ -5135,13 +5135,13 @@
         <v>817400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>1151</v>
@@ -5150,13 +5150,13 @@
         <v>1238033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,10 +5171,10 @@
         <v>211483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>386</v>

--- a/data/trans_orig/P16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2DD800-EAD1-4686-89EE-89C4705F06D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6602AD4F-4772-4157-9812-75CD3F6ED602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A58ACD01-8797-4C71-BCEE-C7625370CC21}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3CB5F775-5013-4EA7-9A21-01B7C9F4D24B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="442">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>66,82%</t>
@@ -190,7 +190,7 @@
     <t>38,13%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>72,28%</t>
@@ -247,7 +247,7 @@
     <t>27,31%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>74,87%</t>
@@ -304,7 +304,7 @@
     <t>29,78%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>85,38%</t>
@@ -361,61 +361,118 @@
     <t>19,47%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>77,58%</t>
@@ -742,58 +799,100 @@
     <t>22,21%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>76,25%</t>
@@ -1117,58 +1216,106 @@
     <t>26,56%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>66,54%</t>
@@ -1628,8 +1775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408782B4-57AA-4216-B26E-B2B56410FF8F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB70998-41B1-4AB3-9A5E-687E32DA9378}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2521,10 +2668,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>93949</v>
+        <v>44914</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2536,10 +2683,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="I19" s="7">
-        <v>237700</v>
+        <v>102857</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2551,10 +2698,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="N19" s="7">
-        <v>331649</v>
+        <v>147770</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2572,10 +2719,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>8022</v>
+        <v>3654</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2587,10 +2734,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>12571</v>
+        <v>8101</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2602,10 +2749,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>20593</v>
+        <v>11755</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2623,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>101971</v>
+        <v>48568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2638,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="I21" s="7">
-        <v>250271</v>
+        <v>110958</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2653,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="N21" s="7">
-        <v>352242</v>
+        <v>159525</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2670,55 +2817,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
-        <v>349926</v>
+        <v>49036</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>650</v>
+        <v>117</v>
       </c>
       <c r="I22" s="7">
-        <v>670954</v>
+        <v>134844</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1008</v>
+        <v>171</v>
       </c>
       <c r="N22" s="7">
-        <v>1020879</v>
+        <v>183879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,49 +2874,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>101108</v>
+        <v>4367</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>129804</v>
+        <v>4470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>230912</v>
+        <v>8838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,63 +2925,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7">
+        <v>53403</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>121</v>
+      </c>
+      <c r="I24" s="7">
+        <v>139314</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>180</v>
+      </c>
+      <c r="N24" s="7">
+        <v>192717</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>358</v>
+      </c>
+      <c r="D25" s="7">
+        <v>349926</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>650</v>
+      </c>
+      <c r="I25" s="7">
+        <v>670954</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1008</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1020879</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>101</v>
+      </c>
+      <c r="D26" s="7">
+        <v>101108</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>127</v>
+      </c>
+      <c r="I26" s="7">
+        <v>129804</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>228</v>
+      </c>
+      <c r="N26" s="7">
+        <v>230912</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>459</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>451034</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>777</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>800758</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1236</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1251791</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2847,8 +3150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FD7933-1440-4060-A844-F128FA833CC7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE330FAB-A5BA-4A34-B12C-9C3ECD932001}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2864,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,13 +3274,13 @@
         <v>33387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2986,13 +3289,13 @@
         <v>51184</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3001,13 +3304,13 @@
         <v>84571</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3325,13 @@
         <v>20755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -3037,13 +3340,13 @@
         <v>45412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -3052,13 +3355,13 @@
         <v>66167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3429,13 @@
         <v>57675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3141,13 +3444,13 @@
         <v>93965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3156,13 +3459,13 @@
         <v>151640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3480,13 @@
         <v>41648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3192,13 +3495,13 @@
         <v>54895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -3207,13 +3510,13 @@
         <v>96543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3584,13 @@
         <v>68328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -3299,10 +3602,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3311,13 +3614,13 @@
         <v>221564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3635,13 @@
         <v>30949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -3350,10 +3653,10 @@
         <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>87</v>
@@ -3362,13 +3665,13 @@
         <v>93431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3739,13 @@
         <v>74648</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -3451,13 +3754,13 @@
         <v>158579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -3466,13 +3769,13 @@
         <v>233227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3790,13 @@
         <v>26971</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3502,13 +3805,13 @@
         <v>37469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3517,13 +3820,13 @@
         <v>64440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3894,13 @@
         <v>77933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -3606,13 +3909,13 @@
         <v>133338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3621,13 +3924,13 @@
         <v>211270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3945,13 @@
         <v>14605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3657,13 +3960,13 @@
         <v>28505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -3672,13 +3975,13 @@
         <v>43110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>151282</v>
+        <v>78646</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="I19" s="7">
-        <v>351486</v>
+        <v>152257</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>461</v>
+        <v>215</v>
       </c>
       <c r="N19" s="7">
-        <v>502769</v>
+        <v>230903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,49 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>9327</v>
+        <v>4063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>16416</v>
+        <v>9766</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>25742</v>
+        <v>13829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,10 +4145,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7">
-        <v>160609</v>
+        <v>82709</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3857,10 +4160,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>344</v>
+        <v>157</v>
       </c>
       <c r="I21" s="7">
-        <v>367902</v>
+        <v>162023</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3872,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>486</v>
+        <v>229</v>
       </c>
       <c r="N21" s="7">
-        <v>528511</v>
+        <v>244732</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3889,55 +4192,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>428</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>463252</v>
+        <v>72636</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>869</v>
+        <v>181</v>
       </c>
       <c r="I22" s="7">
-        <v>941789</v>
+        <v>199230</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
-        <v>1297</v>
+        <v>246</v>
       </c>
       <c r="N22" s="7">
-        <v>1405041</v>
+        <v>271866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,49 +4249,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>144255</v>
+        <v>5264</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>245179</v>
+        <v>6649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>389434</v>
+        <v>11913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,63 +4300,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7">
+        <v>77900</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>187</v>
+      </c>
+      <c r="I24" s="7">
+        <v>205879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>257</v>
+      </c>
+      <c r="N24" s="7">
+        <v>283779</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>428</v>
+      </c>
+      <c r="D25" s="7">
+        <v>463252</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>869</v>
+      </c>
+      <c r="I25" s="7">
+        <v>941789</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1405041</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>137</v>
+      </c>
+      <c r="D26" s="7">
+        <v>144255</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>228</v>
+      </c>
+      <c r="I26" s="7">
+        <v>245179</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>365</v>
+      </c>
+      <c r="N26" s="7">
+        <v>389434</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>565</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>607507</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1097</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1186968</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1662</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1794475</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4066,8 +4525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD1E24-4E13-47D7-B5D9-5F28BBF1457E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41729D96-F49D-4043-9B60-B07DF3753A5C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4083,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4190,13 +4649,13 @@
         <v>22577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4205,13 +4664,13 @@
         <v>39365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -4220,13 +4679,13 @@
         <v>61942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4700,13 @@
         <v>27092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4256,13 +4715,13 @@
         <v>28320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -4271,13 +4730,13 @@
         <v>55412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4804,13 @@
         <v>53551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4360,13 +4819,13 @@
         <v>68479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -4375,13 +4834,13 @@
         <v>122030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4855,13 @@
         <v>41736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4411,13 +4870,13 @@
         <v>60276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -4426,13 +4885,13 @@
         <v>102012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4959,13 @@
         <v>59069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -4515,13 +4974,13 @@
         <v>98744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -4530,13 +4989,13 @@
         <v>157813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +5010,13 @@
         <v>54377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -4566,13 +5025,13 @@
         <v>55189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -4581,13 +5040,13 @@
         <v>109566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +5114,13 @@
         <v>85753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4670,13 +5129,13 @@
         <v>128704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -4685,13 +5144,13 @@
         <v>214457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +5165,13 @@
         <v>39444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -4721,13 +5180,13 @@
         <v>55363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4736,13 +5195,13 @@
         <v>94807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +5269,13 @@
         <v>74001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>143</v>
@@ -4825,13 +5284,13 @@
         <v>162798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -4840,13 +5299,13 @@
         <v>236799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +5320,13 @@
         <v>34502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4876,13 +5335,13 @@
         <v>28627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -4891,13 +5350,13 @@
         <v>63129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +5418,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>125682</v>
+        <v>50117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="I19" s="7">
-        <v>319310</v>
+        <v>143126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
-        <v>407</v>
+        <v>184</v>
       </c>
       <c r="N19" s="7">
-        <v>444992</v>
+        <v>193243</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +5469,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>14333</v>
+        <v>7672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I20" s="7">
-        <v>36749</v>
+        <v>17679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>51082</v>
+        <v>25351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,25 +5520,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>55</v>
+      </c>
+      <c r="D21" s="7">
+        <v>57789</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
         <v>152</v>
       </c>
-      <c r="D21" s="7">
-        <v>140015</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>300</v>
-      </c>
       <c r="I21" s="7">
-        <v>356059</v>
+        <v>160805</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5091,10 +5550,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>452</v>
+        <v>207</v>
       </c>
       <c r="N21" s="7">
-        <v>496074</v>
+        <v>218594</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5108,55 +5567,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>407</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7">
-        <v>420634</v>
+        <v>75565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>744</v>
+        <v>134</v>
       </c>
       <c r="I22" s="7">
-        <v>817400</v>
+        <v>176184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>1151</v>
+        <v>223</v>
       </c>
       <c r="N22" s="7">
-        <v>1238033</v>
+        <v>251749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,49 +5624,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>211483</v>
+        <v>6661</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>264524</v>
+        <v>19070</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="N23" s="7">
-        <v>476007</v>
+        <v>25731</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,63 +5675,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7">
+        <v>82226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>148</v>
+      </c>
+      <c r="I24" s="7">
+        <v>195254</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>245</v>
+      </c>
+      <c r="N24" s="7">
+        <v>277480</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>407</v>
+      </c>
+      <c r="D25" s="7">
+        <v>420634</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="7">
+        <v>744</v>
+      </c>
+      <c r="I25" s="7">
+        <v>817400</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1151</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1238033</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>197</v>
+      </c>
+      <c r="D26" s="7">
+        <v>211483</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>250</v>
+      </c>
+      <c r="I26" s="7">
+        <v>264524</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>447</v>
+      </c>
+      <c r="N26" s="7">
+        <v>476007</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>604</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>632117</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>994</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1081924</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1598</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1714040</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P16B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
